--- a/Impact Soundworks/Bravura Scoring Brass/xlsx/01 Ensemble.xlsx
+++ b/Impact Soundworks/Bravura Scoring Brass/xlsx/01 Ensemble.xlsx
@@ -38,6 +38,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -60,6 +75,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,6 +118,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -110,6 +155,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,6 +198,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -160,6 +235,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,6 +278,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -204,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="168">
   <si>
     <t>Name</t>
   </si>
@@ -691,13 +796,37 @@
   <si>
     <t>Flutter</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>01 Ensemble Full Brass</t>
+  </si>
+  <si>
+    <t>02 Ensemble Trumpets</t>
+  </si>
+  <si>
+    <t>03 Ensemble Horns</t>
+  </si>
+  <si>
+    <t>04 Ensemble Trombones</t>
+  </si>
+  <si>
+    <t>05 Ensemble Low Brass</t>
+  </si>
+  <si>
+    <t>06 Ensemble Orchestrator</t>
+  </si>
+  <si>
+    <t>07 Ensemble Chordmaker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -742,8 +871,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +932,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -855,7 +997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +1057,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1005,13 +1153,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1310,7 +1458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1319,12 +1467,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -1339,100 +1487,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -1440,12 +1547,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -1453,13 +1556,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -1468,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -1480,13 +1583,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -1495,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -1506,26 +1609,54 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="12">
+        <v>120</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3104,26 +3235,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3142,7 +3302,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3151,7 +3311,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -3160,7 +3320,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3171,12 +3331,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -3191,100 +3351,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -3292,12 +3411,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -3305,13 +3420,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -3320,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -3332,13 +3447,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -3347,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -3359,13 +3474,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -3374,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -3386,13 +3501,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -3401,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -3413,13 +3528,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -3428,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -3440,13 +3555,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -3455,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="12">
         <v>120</v>
@@ -3467,13 +3582,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -3482,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="12">
         <v>120</v>
@@ -3494,13 +3609,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -3509,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="12">
         <v>120</v>
@@ -3520,26 +3635,54 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="12">
+        <v>120</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="12">
+        <v>120</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -5053,26 +5196,55 @@
       <c r="J130" s="12"/>
       <c r="K130" s="12"/>
     </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K130">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K132">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J130">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J132">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G130">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G132">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I130">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I132">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B130">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B132">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5090,7 +5262,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F130</xm:sqref>
+          <xm:sqref>F4:F132</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5099,7 +5271,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E130</xm:sqref>
+          <xm:sqref>E4:E132</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5108,7 +5280,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D130</xm:sqref>
+          <xm:sqref>D4:D132</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5119,12 +5291,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -5139,100 +5311,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -5240,12 +5371,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -5253,13 +5380,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -5268,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -5280,13 +5407,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -5295,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -5307,13 +5434,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -5322,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -5334,13 +5461,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -5349,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -5361,13 +5488,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -5376,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -5388,13 +5515,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -5403,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="12">
         <v>120</v>
@@ -5415,13 +5542,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -5430,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="12">
         <v>120</v>
@@ -5442,13 +5569,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -5457,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="12">
         <v>120</v>
@@ -5469,13 +5596,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>159</v>
+      <c r="C13" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>12</v>
@@ -5484,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" s="12">
         <v>120</v>
@@ -5495,26 +5622,54 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="12">
+        <v>120</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="12">
+        <v>120</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -7015,26 +7170,55 @@
       <c r="J130" s="12"/>
       <c r="K130" s="12"/>
     </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B130">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B132">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I130">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I132">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G130">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G132">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J130">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J132">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K130">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K132">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -7052,7 +7236,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D130</xm:sqref>
+          <xm:sqref>D4:D132</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -7061,7 +7245,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E130</xm:sqref>
+          <xm:sqref>E4:E132</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -7070,7 +7254,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F130</xm:sqref>
+          <xm:sqref>F4:F132</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7081,12 +7265,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -7101,100 +7285,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -7202,12 +7345,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -7215,13 +7354,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -7230,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -7242,13 +7381,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -7257,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -7269,13 +7408,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -7284,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -7296,13 +7435,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>159</v>
+      <c r="C8" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -7311,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -7322,26 +7461,54 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="12">
+        <v>120</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="12">
+        <v>120</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -8842,26 +9009,55 @@
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
     </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K125">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K127">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J125">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J127">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G125">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G127">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I125">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I127">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B125">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B127">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8879,7 +9075,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F125</xm:sqref>
+          <xm:sqref>F4:F127</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8888,7 +9084,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E125</xm:sqref>
+          <xm:sqref>E4:E127</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8897,7 +9093,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D125</xm:sqref>
+          <xm:sqref>D4:D127</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8908,12 +9104,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -8928,100 +9124,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -9029,12 +9184,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -9042,13 +9193,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -9057,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -9069,13 +9220,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -9084,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -9096,13 +9247,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -9111,7 +9262,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -9123,13 +9274,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -9138,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -9150,13 +9301,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -9165,7 +9316,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -9176,26 +9327,54 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="12">
+        <v>120</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="12">
+        <v>120</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -10631,26 +10810,55 @@
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
     </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B123">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I121">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I123">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G121">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G123">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J121">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J123">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K121">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K123">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -10668,7 +10876,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D121</xm:sqref>
+          <xm:sqref>D4:D123</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -10677,7 +10885,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E121</xm:sqref>
+          <xm:sqref>E4:E123</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -10686,7 +10894,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F121</xm:sqref>
+          <xm:sqref>F4:F123</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10697,10 +10905,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -10717,100 +10925,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -10818,12 +10985,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -10831,13 +10994,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -10846,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -10858,13 +11021,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -10873,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -10884,26 +11047,54 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="12">
+        <v>120</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -12326,26 +12517,55 @@
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
     </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K117">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K119">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J117">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J119">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G117">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G119">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I117">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I119">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B119">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12363,7 +12583,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F117</xm:sqref>
+          <xm:sqref>F4:F119</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -12372,7 +12592,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E117</xm:sqref>
+          <xm:sqref>E4:E119</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -12381,7 +12601,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D117</xm:sqref>
+          <xm:sqref>D4:D119</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12391,12 +12611,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -12411,100 +12631,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -12512,12 +12691,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -12525,13 +12700,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -12540,7 +12715,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -12552,13 +12727,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -12567,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -12578,26 +12753,54 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="12">
+        <v>120</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -14020,26 +14223,55 @@
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
     </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B119">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I117">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I119">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G117">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G119">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J117">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J119">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K117">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K119">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -14057,7 +14289,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D117</xm:sqref>
+          <xm:sqref>D4:D119</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -14066,7 +14298,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E117</xm:sqref>
+          <xm:sqref>E4:E119</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -14075,7 +14307,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F117</xm:sqref>
+          <xm:sqref>F4:F119</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
